--- a/tabla numeros nominalization.xlsx
+++ b/tabla numeros nominalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauba\Documents\GitHub\Trabajo_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F36E781E-41F4-4809-AAB1-CD3DF1807738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997EB1EA-ECD2-4B7D-8068-82495BC8E046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{1A20B461-1A4A-43E0-AB28-496E0CE02AFF}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,6 +434,12 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>888</v>
+      </c>
+      <c r="C3">
+        <v>359</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">

--- a/tabla numeros nominalization.xlsx
+++ b/tabla numeros nominalization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauba\Documents\GitHub\Trabajo_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997EB1EA-ECD2-4B7D-8068-82495BC8E046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D2B32-1960-4595-A3ED-253AFF07A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{1A20B461-1A4A-43E0-AB28-496E0CE02AFF}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7460" xr2:uid="{1A20B461-1A4A-43E0-AB28-496E0CE02AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>terminaciones singular</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>no nominalization words</t>
+  </si>
+  <si>
+    <t>mas no nom words</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8873CF9-9E17-42F1-9179-B091BAB63A02}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,6 +446,17 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>897</v>
+      </c>
+      <c r="C4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
